--- a/Homework/131.xlsx
+++ b/Homework/131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C564D73-63F1-4A83-85FC-0B6FC5868209}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61395B39-ADA8-4104-B080-7C429770C950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>Antoine Coefficients</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>The Species are chemically similar, so ideal solution model is a good approximation</t>
+  </si>
+  <si>
+    <t>uh oh</t>
   </si>
 </sst>
 </file>
@@ -928,10 +931,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1195,15 +1194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1211,7 +1210,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1223,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>217.572</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>217.625</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>0.28177497426274212</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>0.48404578364949924</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>0.23841811818257963</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>0.48404578364949924</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>0.51595421635050076</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>0.28177497426274212</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>0.71822502573725788</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>21</v>
       </c>
@@ -1701,14 +1700,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
       <c r="Q19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
       <c r="Q20" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
